--- a/biology/Médecine/Veine_médiane_antébrachiale/Veine_médiane_antébrachiale.xlsx
+++ b/biology/Médecine/Veine_médiane_antébrachiale/Veine_médiane_antébrachiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Veine_m%C3%A9diane_ant%C3%A9brachiale</t>
+          <t>Veine_médiane_antébrachiale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine médiane antébrachiale est une veine superficielle du membre supérieur.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Veine_m%C3%A9diane_ant%C3%A9brachiale</t>
+          <t>Veine_médiane_antébrachiale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine médiane antébrachiale prolonge la veine céphalique du pouce.
 Elle passe au dessus du processus styloïde du radius pour monter en haut et en dedans jusqu'à la partie médiale de la face antérieure de l'avant-bras. Elle poursuit son trajet jusqu'au pli du coude où elle se divise en deux branches les veines médianes basilique et céphalique. Mais sa terminaison peut avoir plusieurs variations.
